--- a/app/admin/Menu.xlsx
+++ b/app/admin/Menu.xlsx
@@ -48,9 +48,6 @@
     <t>Нарезка из креветок, кальмаров, раковых шеек, гребешков, лосося, скумбрии и красной икры</t>
   </si>
   <si>
-    <t>Рамен</t>
-  </si>
-  <si>
     <t>Горячий рамен</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>5b584494-0190-490f-85f1-5df20f674481</t>
+  </si>
+  <si>
+    <t>Раменчито</t>
   </si>
 </sst>
 </file>
@@ -273,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -298,6 +298,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,10 +547,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -552,12 +561,13 @@
     <col min="4" max="4" width="27.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="23.140625" style="1"/>
+    <col min="7" max="7" width="6.5703125" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="23.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -568,11 +578,12 @@
       <c r="D1" s="7"/>
       <c r="E1" s="8"/>
       <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>2</v>
@@ -582,12 +593,13 @@
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>4</v>
@@ -596,30 +608,34 @@
         <v>5</v>
       </c>
       <c r="F3" s="6">
-        <v>282.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>282.98</v>
+      </c>
+      <c r="G3" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="6">
         <v>215.36</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>7</v>
@@ -630,206 +646,226 @@
       <c r="F5" s="6">
         <v>265.56</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="F7" s="6">
         <v>166.47</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="F8" s="6">
         <v>168.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="F9" s="6">
         <v>132.88</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="8"/>
       <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="F12" s="6">
         <v>2700.79</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="F13" s="6">
         <v>3100.33</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="F14" s="6">
         <v>1850.42</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="F16" s="6">
         <v>420.78</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="F17" s="6">
         <v>440.11</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="F18" s="6">
         <v>520.08000000000004</v>
       </c>
+      <c r="G18" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C12 A14:C1048576 A13:B13">
